--- a/output/fit_clients/fit_round_7.xlsx
+++ b/output/fit_clients/fit_round_7.xlsx
@@ -485,25 +485,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D2" t="n">
-        <v>4631561151.493849</v>
+        <v>8028405921.348224</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001938892638358515</v>
+        <v>0.001351815838892293</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005655522866528816</v>
+        <v>0.15497600173548</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.010135125235983e-06</v>
+        <v>0.2080902189182824</v>
       </c>
       <c r="I2" t="n">
-        <v>2.625936760221209</v>
+        <v>4.147624669602355</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>450</v>
+        <v>555</v>
       </c>
       <c r="D3" t="n">
-        <v>3215255551.869132</v>
+        <v>7349031933.447765</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004034955675476349</v>
+        <v>0.004891641142873002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008146755235294638</v>
+        <v>0.1978167278581921</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.45509510156435e-06</v>
+        <v>0.3727973954884279</v>
       </c>
       <c r="I3" t="n">
-        <v>2.632970551082066</v>
+        <v>7.009541846502918</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +547,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D4" t="n">
-        <v>1914563032.738912</v>
+        <v>5854058239.69255</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001761175115914675</v>
+        <v>0.002660625459979935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001368139860223241</v>
+        <v>0.253703340347704</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.443639892654482e-06</v>
+        <v>0.5876613108396974</v>
       </c>
       <c r="I4" t="n">
-        <v>2.622659254074097</v>
+        <v>7.161099508048927</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +578,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>450</v>
+        <v>554</v>
       </c>
       <c r="D5" t="n">
-        <v>4494078122.686357</v>
+        <v>9601736536.22954</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003808431903850573</v>
+        <v>0.004016583157079982</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005828536862270313</v>
+        <v>0.1511332928709833</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.041037221890962e-06</v>
+        <v>0.1933163860556136</v>
       </c>
       <c r="I5" t="n">
-        <v>2.619617162431989</v>
+        <v>6.996912041374084</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D6" t="n">
-        <v>649032361.169804</v>
+        <v>4201965448.797377</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00150975763253524</v>
+        <v>0.004860331894281408</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004035838822087175</v>
+        <v>0.2911149900935291</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>7.208427319972007e-06</v>
+        <v>0.7314956422844034</v>
       </c>
       <c r="I6" t="n">
-        <v>2.626957498277937</v>
+        <v>5.898118995165518</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D7" t="n">
-        <v>1439398421.84168</v>
+        <v>10612059756.78082</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001124963951718809</v>
+        <v>0.00476053254405719</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001819781069822591</v>
+        <v>0.1108273169351973</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.250318002861439e-06</v>
+        <v>0.0383544118754414</v>
       </c>
       <c r="I7" t="n">
-        <v>2.627419355937413</v>
+        <v>3.76682333255501</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +671,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>450</v>
+        <v>584</v>
       </c>
       <c r="D8" t="n">
-        <v>2429573859.261202</v>
+        <v>6580297746.169048</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004399902958873724</v>
+        <v>0.002545926378417389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001078127339086748</v>
+        <v>0.2324702952675025</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.925647407658978e-06</v>
+        <v>0.5060278927895645</v>
       </c>
       <c r="I8" t="n">
-        <v>2.625061253138951</v>
+        <v>7.375806195239107</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +702,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D9" t="n">
-        <v>128668985.2499559</v>
+        <v>7443626772.107326</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003685636824709343</v>
+        <v>0.004667730463380518</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02035758652259129</v>
+        <v>0.1562422721620078</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.636076397675605e-05</v>
+        <v>0.212958573066395</v>
       </c>
       <c r="I9" t="n">
-        <v>2.628480543409075</v>
+        <v>5.607633477202334</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +733,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D10" t="n">
-        <v>678282383.9485012</v>
+        <v>8558475075.644377</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003095855959157138</v>
+        <v>0.001195970560627643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003861798657885943</v>
+        <v>0.169250089203647</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>6.897573509969811e-06</v>
+        <v>0.2629689489907559</v>
       </c>
       <c r="I10" t="n">
-        <v>2.621237857001169</v>
+        <v>6.98428223624525</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +764,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="D11" t="n">
-        <v>1824765719.917668</v>
+        <v>6292372889.704193</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000812304082011366</v>
+        <v>0.002341589887010742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00143546646641202</v>
+        <v>0.1710911461972512</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.563892204207697e-06</v>
+        <v>0.2700471506639182</v>
       </c>
       <c r="I11" t="n">
-        <v>2.622304562159947</v>
+        <v>3.341108567328066</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +795,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="D12" t="n">
-        <v>3712068996.921957</v>
+        <v>4295230865.801661</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001846419463877546</v>
+        <v>0.001210634708075548</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0007056415174857998</v>
+        <v>0.2951610285011725</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.26034904191753e-06</v>
+        <v>0.7470512040764343</v>
       </c>
       <c r="I12" t="n">
-        <v>2.634890059062413</v>
+        <v>6.112825682355698</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +826,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D13" t="n">
-        <v>2641715195.622495</v>
+        <v>9670848879.760775</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001771264182260648</v>
+        <v>0.003799180704273011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009915489770965891</v>
+        <v>0.1281140348075265</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.771009460654562e-06</v>
+        <v>0.1048156218175982</v>
       </c>
       <c r="I13" t="n">
-        <v>2.630150992529733</v>
+        <v>4.544300977668851</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +857,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D14" t="n">
-        <v>4421137649.298481</v>
+        <v>3838879228.265833</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003452755306270073</v>
+        <v>0.002083211896376473</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0005924696781190762</v>
+        <v>0.3609536084900367</v>
       </c>
       <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>1.058212382178309e-06</v>
-      </c>
       <c r="I14" t="n">
-        <v>2.62505669593811</v>
+        <v>6.681166913153231</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +888,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D15" t="n">
-        <v>472000757.0176398</v>
+        <v>6180192593.231222</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003634701069172503</v>
+        <v>0.003835257473186202</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005549546184100944</v>
+        <v>0.2377721677491778</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>9.912065890240739e-06</v>
+        <v>0.526411684709672</v>
       </c>
       <c r="I15" t="n">
-        <v>2.634023571014404</v>
+        <v>7.085320677275923</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +919,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>450</v>
+        <v>597</v>
       </c>
       <c r="D16" t="n">
-        <v>1590104679.135227</v>
+        <v>8363336422.610826</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001000698564808018</v>
+        <v>0.001409256946904231</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001647306642368064</v>
+        <v>0.1869799026345789</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.94226076131462e-06</v>
+        <v>0.3311337019167359</v>
       </c>
       <c r="I16" t="n">
-        <v>2.632010541643415</v>
+        <v>7.539993661913949</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +950,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D17" t="n">
-        <v>2923716675.120843</v>
+        <v>11505953990.77913</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00443580115018765</v>
+        <v>0.002632533958853625</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0008959110238996518</v>
+        <v>0.1008512437065137</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1.600190142777423e-06</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.639052833829607</v>
+        <v>3.295549158733291</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +981,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="D18" t="n">
-        <v>3159157060.400885</v>
+        <v>9473069996.072027</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00474565561140208</v>
+        <v>0.002530237705619667</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008291420622397323</v>
+        <v>0.1288532377050029</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.480933842272682e-06</v>
+        <v>0.1076575909711339</v>
       </c>
       <c r="I18" t="n">
-        <v>2.639292662484305</v>
+        <v>5.885489190036685</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1012,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="D19" t="n">
-        <v>2651005561.576064</v>
+        <v>5886800311.101475</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002338189809745013</v>
+        <v>0.003725842327384357</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0009880741247644657</v>
+        <v>0.2233698631700255</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.764803013472711e-06</v>
+        <v>0.4710400059818029</v>
       </c>
       <c r="I19" t="n">
-        <v>2.615027652468</v>
+        <v>6.340162174674711</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1043,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D20" t="n">
-        <v>4952709980.820808</v>
+        <v>10802579408.58691</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001143123273030613</v>
+        <v>0.002579420329773804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0005288801504920525</v>
+        <v>0.1418497464394428</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9.446348810892798e-07</v>
+        <v>0.1576244905233798</v>
       </c>
       <c r="I20" t="n">
-        <v>2.628805106026786</v>
+        <v>7.388436000367941</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1074,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="D21" t="n">
-        <v>3792716796.773875</v>
+        <v>7022430871.386431</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0006432460950695578</v>
+        <v>0.004981914292164171</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0006906368548867348</v>
+        <v>0.2014217905317369</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.233549156051393e-06</v>
+        <v>0.3866575642590777</v>
       </c>
       <c r="I21" t="n">
-        <v>2.624047401973179</v>
+        <v>6.820094769570407</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1105,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>450</v>
+        <v>548</v>
       </c>
       <c r="D22" t="n">
-        <v>128519285.7007198</v>
+        <v>10471174018.50288</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004340489530750181</v>
+        <v>0.003435409090929079</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02038129908455699</v>
+        <v>0.1370835512296482</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.640311707533984e-05</v>
+        <v>0.1393001849609854</v>
       </c>
       <c r="I22" t="n">
-        <v>450</v>
+        <v>6.92113321060108</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1136,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D23" t="n">
-        <v>3328936270.761126</v>
+        <v>9674208690.048126</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001084603850167031</v>
+        <v>0.003950282358147591</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0007868549551419032</v>
+        <v>0.1294233420132858</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.405404676831697e-06</v>
+        <v>0.1098494368959387</v>
       </c>
       <c r="I23" t="n">
-        <v>450</v>
+        <v>6.037046851582693</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1167,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="D24" t="n">
-        <v>381062351.8244779</v>
+        <v>9545462800.439411</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000841316538259083</v>
+        <v>0.002757449512240559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006873914432792153</v>
+        <v>0.1440663254102982</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.227752513834621e-05</v>
+        <v>0.1661464390750591</v>
       </c>
       <c r="I24" t="n">
-        <v>450</v>
+        <v>6.630647692637895</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1198,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="D25" t="n">
-        <v>4270985989.805146</v>
+        <v>4005750066.455345</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0009375163623674614</v>
+        <v>0.003374091722585616</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0006132986636464016</v>
+        <v>0.3302232860400419</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1.095415113739532e-06</v>
+        <v>0.8818529678668204</v>
       </c>
       <c r="I25" t="n">
-        <v>450</v>
+        <v>4.02660230485511</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1229,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D26" t="n">
-        <v>1992078431.92715</v>
+        <v>6656364638.199552</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0009962347500754025</v>
+        <v>0.001619619687924144</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001314903046997996</v>
+        <v>0.1644899400066754</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.348553414775109e-06</v>
+        <v>0.2446678881721304</v>
       </c>
       <c r="I26" t="n">
-        <v>450</v>
+        <v>5.279258543852648</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1260,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>450</v>
+        <v>559</v>
       </c>
       <c r="D27" t="n">
-        <v>4193882394.649139</v>
+        <v>11341793255.5769</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003494035630699183</v>
+        <v>0.001976772246546785</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0006245740231872045</v>
+        <v>0.1291011903501253</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.115554076998327e-06</v>
+        <v>0.1086108796708684</v>
       </c>
       <c r="I27" t="n">
-        <v>450</v>
+        <v>7.060061067018254</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1291,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D28" t="n">
-        <v>2722322212.960444</v>
+        <v>9226832052.920246</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001329494710253971</v>
+        <v>0.004708951780596967</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0009621895554940542</v>
+        <v>0.1249108679327516</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.718570484246471e-06</v>
+        <v>0.09250059777911704</v>
       </c>
       <c r="I28" t="n">
-        <v>450</v>
+        <v>5.557114256686998</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1322,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="D29" t="n">
-        <v>703231843.1428608</v>
+        <v>7670116655.355911</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002081391905835109</v>
+        <v>0.003648709149239378</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003724788667551668</v>
+        <v>0.1779245676852974</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.652859436645166e-06</v>
+        <v>0.2963191974164863</v>
       </c>
       <c r="I29" t="n">
-        <v>450</v>
+        <v>6.580128472122559</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1353,25 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>450</v>
+        <v>588</v>
       </c>
       <c r="D30" t="n">
-        <v>2651743904.544246</v>
+        <v>10883216808.63199</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004898620322817088</v>
+        <v>0.003692672530015469</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0009877990086113511</v>
+        <v>0.1415207789280091</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1.764311627448219e-06</v>
+        <v>0.1563597288142444</v>
       </c>
       <c r="I30" t="n">
-        <v>450</v>
+        <v>5.075855021206838</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1384,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>450</v>
+        <v>562</v>
       </c>
       <c r="D31" t="n">
-        <v>4401565284.951936</v>
+        <v>4465810735.084175</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003326939142700229</v>
+        <v>0.004953000027454639</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0005951042028060259</v>
+        <v>0.3296371627294798</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.062917916904973e-06</v>
+        <v>0.8795995346423672</v>
       </c>
       <c r="I31" t="n">
-        <v>450</v>
+        <v>7.097950482404757</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1415,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D32" t="n">
-        <v>1638027954.409359</v>
+        <v>5250756274.682796</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001537645572784908</v>
+        <v>0.002302539363220608</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001599111903401246</v>
+        <v>0.2234890858785655</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.856179951757496e-06</v>
+        <v>0.4714983743962509</v>
       </c>
       <c r="I32" t="n">
-        <v>450</v>
+        <v>5.658152697717671</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="D33" t="n">
-        <v>335125820.7473602</v>
+        <v>8925046228.111872</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0005005090786617887</v>
+        <v>0.003042729667140085</v>
       </c>
       <c r="F33" t="n">
-        <v>0.007816139007607735</v>
+        <v>0.1229712857444981</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.396043609343165e-05</v>
+        <v>0.08504360218483344</v>
       </c>
       <c r="I33" t="n">
-        <v>450</v>
+        <v>5.291888348981482</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>450</v>
+        <v>537</v>
       </c>
       <c r="D34" t="n">
-        <v>2512925982.691546</v>
+        <v>10708882387.52186</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00422366396888548</v>
+        <v>0.00168172816104123</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0010423665551798</v>
+        <v>0.1313500680182093</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.861774933295608e-06</v>
+        <v>0.1172570050913569</v>
       </c>
       <c r="I34" t="n">
-        <v>450</v>
+        <v>6.782205354183905</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +1508,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="D35" t="n">
-        <v>463109970.3158004</v>
+        <v>6495582729.945724</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0008675228470349849</v>
+        <v>0.002295289182122432</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005656086389618875</v>
+        <v>0.1911438760183991</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1.010235776312919e-05</v>
+        <v>0.3471426812556425</v>
       </c>
       <c r="I35" t="n">
-        <v>450</v>
+        <v>4.144049066235366</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +1539,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="D36" t="n">
-        <v>4592921599.538335</v>
+        <v>5531345477.894641</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002421597028799308</v>
+        <v>0.0016731837889433</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0005703101921581445</v>
+        <v>0.2793967771812783</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.0186332386498e-06</v>
+        <v>0.6864433301994917</v>
       </c>
       <c r="I36" t="n">
-        <v>450</v>
+        <v>7.451585026012111</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +1570,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D37" t="n">
-        <v>1470009023.493147</v>
+        <v>4145582636.048746</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003286525383607157</v>
+        <v>0.003464404985076307</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001781887021193657</v>
+        <v>0.290019549856553</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>3.18263529613236e-06</v>
+        <v>0.7272840687453171</v>
       </c>
       <c r="I37" t="n">
-        <v>450</v>
+        <v>5.797080554134846</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +1601,25 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="D38" t="n">
-        <v>3788004136.683301</v>
+        <v>8677973959.411304</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001367976052532208</v>
+        <v>0.001880144056847697</v>
       </c>
       <c r="F38" t="n">
-        <v>0.000691496076953465</v>
+        <v>0.1234539899532813</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.235083815905955e-06</v>
+        <v>0.08689942617622604</v>
       </c>
       <c r="I38" t="n">
-        <v>450</v>
+        <v>5.165590297693141</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +1632,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D39" t="n">
-        <v>1208119670.546403</v>
+        <v>11072385598.62362</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0005897059007540051</v>
+        <v>0.003428804882655717</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002168154417033301</v>
+        <v>0.1052734787474252</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>3.872548984891855e-06</v>
+        <v>0.01700190248017144</v>
       </c>
       <c r="I39" t="n">
-        <v>450</v>
+        <v>3.700681384761236</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>450</v>
+        <v>532</v>
       </c>
       <c r="D40" t="n">
-        <v>4977344800.472629</v>
+        <v>6511962617.38905</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004677941756631887</v>
+        <v>0.003944419583593229</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0005262625164628485</v>
+        <v>0.2139931633327965</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>9.399595148317035e-07</v>
+        <v>0.434989969124072</v>
       </c>
       <c r="I40" t="n">
-        <v>450</v>
+        <v>6.719056328539734</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +1694,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="D41" t="n">
-        <v>1741391679.735254</v>
+        <v>7793023484.624671</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001301468293710195</v>
+        <v>0.001532106934649001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001504193473807242</v>
+        <v>0.1643626138849869</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.686645777768752e-06</v>
+        <v>0.2441783650499763</v>
       </c>
       <c r="I41" t="n">
-        <v>450</v>
+        <v>6.175974707999869</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +1725,25 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D42" t="n">
-        <v>4012889470.161499</v>
+        <v>9283215732.316658</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0007232069026177758</v>
+        <v>0.001144279356828981</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0006527441185402455</v>
+        <v>0.131206295870067</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1.165868793195061e-06</v>
+        <v>0.1167042529152591</v>
       </c>
       <c r="I42" t="n">
-        <v>450</v>
+        <v>3.995722102094664</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +1756,25 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="D43" t="n">
-        <v>1659278619.147779</v>
+        <v>6660486902.489964</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001180145356046854</v>
+        <v>0.004111428154496694</v>
       </c>
       <c r="F43" t="n">
-        <v>0.001578631804069978</v>
+        <v>0.1915239754503702</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.81960036717961e-06</v>
+        <v>0.3486040268004529</v>
       </c>
       <c r="I43" t="n">
-        <v>450</v>
+        <v>6.1507150977422</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +1787,25 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D44" t="n">
-        <v>3462762376.054428</v>
+        <v>4415321090.209537</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0006504033577731836</v>
+        <v>0.001635809515497397</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0007564452063224186</v>
+        <v>0.3411188493946027</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.351089706921552e-06</v>
+        <v>0.9237424884162742</v>
       </c>
       <c r="I44" t="n">
-        <v>450</v>
+        <v>7.2621379490796</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +1818,25 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>450</v>
+        <v>598</v>
       </c>
       <c r="D45" t="n">
-        <v>4748089150.962017</v>
+        <v>5799373007.339278</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00101477585910925</v>
+        <v>0.001034802239271949</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0005516724553222178</v>
+        <v>0.2700973394913003</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>9.853443048461795e-07</v>
+        <v>0.6506903384967146</v>
       </c>
       <c r="I45" t="n">
-        <v>450</v>
+        <v>7.552623467042784</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +1849,25 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="D46" t="n">
-        <v>3620875686.984382</v>
+        <v>9327113686.553909</v>
       </c>
       <c r="E46" t="n">
-        <v>0.001103250198622601</v>
+        <v>0.002323942061119299</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0007234134022926201</v>
+        <v>0.1151427908022844</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.292091474065161e-06</v>
+        <v>0.05494585605811439</v>
       </c>
       <c r="I46" t="n">
-        <v>450</v>
+        <v>5.178220102821975</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +1880,25 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D47" t="n">
-        <v>253949194.421731</v>
+        <v>5284660099.182248</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004984447528964988</v>
+        <v>0.004545676530028684</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01031462220608585</v>
+        <v>0.2354380843136023</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.842298659169129e-05</v>
+        <v>0.5174379737727567</v>
       </c>
       <c r="I47" t="n">
-        <v>450</v>
+        <v>5.999157436196191</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +1911,25 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D48" t="n">
-        <v>1710334872.429317</v>
+        <v>6015994442.290919</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001695047642757514</v>
+        <v>0.004913119409870457</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001531507099705851</v>
+        <v>0.254711530188262</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>2.735430750562388e-06</v>
+        <v>0.5915374379998527</v>
       </c>
       <c r="I48" t="n">
-        <v>450</v>
+        <v>7.388436000367941</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +1942,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D49" t="n">
-        <v>2534992985.760207</v>
+        <v>4129579014.303907</v>
       </c>
       <c r="E49" t="n">
-        <v>0.004970094567237064</v>
+        <v>0.003272627013291664</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001033292799906696</v>
+        <v>0.2790917902304078</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1.845568263929275e-06</v>
+        <v>0.6852707651168007</v>
       </c>
       <c r="I49" t="n">
-        <v>450</v>
+        <v>5.557114256686998</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +1973,25 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D50" t="n">
-        <v>359280883.8736283</v>
+        <v>7459887425.242158</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004117087719275794</v>
+        <v>0.004131512628833012</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007290646726758029</v>
+        <v>0.1857477507383457</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1.30218522994058e-05</v>
+        <v>0.3263965212407404</v>
       </c>
       <c r="I50" t="n">
-        <v>450</v>
+        <v>6.681166913153231</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2004,25 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="D51" t="n">
-        <v>4219535299.831759</v>
+        <v>6789710355.913598</v>
       </c>
       <c r="E51" t="n">
-        <v>0.003828359196453526</v>
+        <v>0.002903440489956149</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0006207768898400826</v>
+        <v>0.1840209617943089</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1.108772002449866e-06</v>
+        <v>0.3197576391011107</v>
       </c>
       <c r="I51" t="n">
-        <v>450</v>
+        <v>6.024417046453859</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2035,25 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="D52" t="n">
-        <v>954254552.2521319</v>
+        <v>6348395900.643472</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001412328568693233</v>
+        <v>0.0032647394106087</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002744959396649447</v>
+        <v>0.2207445269533296</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>4.902782588524876e-06</v>
+        <v>0.4609465329029215</v>
       </c>
       <c r="I52" t="n">
-        <v>450</v>
+        <v>6.756945743926236</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2066,25 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D53" t="n">
-        <v>2291055280.461979</v>
+        <v>7706748214.92239</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004736402605423769</v>
+        <v>0.001614771459233107</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001143311565782827</v>
+        <v>0.1546466053856934</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>2.042073206919284e-06</v>
+        <v>0.2068238084799893</v>
       </c>
       <c r="I53" t="n">
-        <v>450</v>
+        <v>5.74656133361951</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2097,25 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D54" t="n">
-        <v>3365275118.556035</v>
+        <v>8083404506.582811</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001346257052656834</v>
+        <v>0.004702064893980365</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0007783583533948697</v>
+        <v>0.1791971030053462</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1.390228863609165e-06</v>
+        <v>0.3012116378258917</v>
       </c>
       <c r="I54" t="n">
-        <v>450</v>
+        <v>6.98428223624525</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2128,25 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D55" t="n">
-        <v>3439468185.650774</v>
+        <v>9585389454.300186</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00430650422421788</v>
+        <v>0.001483566800546472</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0007615683177207207</v>
+        <v>0.1549435353754681</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1.360240115992567e-06</v>
+        <v>0.2079653974464019</v>
       </c>
       <c r="I55" t="n">
-        <v>450</v>
+        <v>7.161099508048927</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D56" t="n">
-        <v>3345305167.650477</v>
+        <v>9040450927.882967</v>
       </c>
       <c r="E56" t="n">
-        <v>0.002130840779414419</v>
+        <v>0.001146718870240128</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0007830047988834715</v>
+        <v>0.1697882718732314</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1.398527897856394e-06</v>
+        <v>0.2650380677011233</v>
       </c>
       <c r="I56" t="n">
-        <v>450</v>
+        <v>7.401065805496775</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +2190,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D57" t="n">
-        <v>2596785918.423921</v>
+        <v>9764155145.179581</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004455317385926043</v>
+        <v>0.001892700453050512</v>
       </c>
       <c r="F57" t="n">
-        <v>0.001008704638074208</v>
+        <v>0.1118668859475513</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1.801651253038949e-06</v>
+        <v>0.04235118065998966</v>
       </c>
       <c r="I57" t="n">
-        <v>450</v>
+        <v>5.266628738723814</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +2221,25 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D58" t="n">
-        <v>1716606899.486934</v>
+        <v>6762571652.258092</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003302790666920774</v>
+        <v>0.003599858423189042</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001525911378302681</v>
+        <v>0.1684913238027624</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>2.725436210934887e-06</v>
+        <v>0.2600517690507884</v>
       </c>
       <c r="I58" t="n">
-        <v>450</v>
+        <v>5.493965231042828</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +2252,25 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D59" t="n">
-        <v>742572680.1132398</v>
+        <v>5096377373.571731</v>
       </c>
       <c r="E59" t="n">
-        <v>0.004950081361062611</v>
+        <v>0.002381176626755057</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00352745269271225</v>
+        <v>0.2672649021368294</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>6.300396889216149e-06</v>
+        <v>0.6398006360642577</v>
       </c>
       <c r="I59" t="n">
-        <v>450</v>
+        <v>6.567498666993725</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +2283,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D60" t="n">
-        <v>136991014.4672385</v>
+        <v>10492187387.66379</v>
       </c>
       <c r="E60" t="n">
-        <v>0.002288326169720766</v>
+        <v>0.004383659442112248</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01912088913412952</v>
+        <v>0.146295761149361</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>3.415189399098305e-05</v>
+        <v>0.1747178172742475</v>
       </c>
       <c r="I60" t="n">
-        <v>450</v>
+        <v>7.401065805496775</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +2314,25 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="D61" t="n">
-        <v>4979676526.003522</v>
+        <v>9915877161.265503</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004742895865197575</v>
+        <v>0.00241419510991461</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0005260160948852258</v>
+        <v>0.1067211243936935</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>9.395193802994114e-07</v>
+        <v>0.02256757908396988</v>
       </c>
       <c r="I61" t="n">
-        <v>450</v>
+        <v>5.102441272048971</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +2345,25 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D62" t="n">
-        <v>1054909517.324069</v>
+        <v>10688978429.41864</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003188844578732259</v>
+        <v>0.003758092146377222</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002483047083170188</v>
+        <v>0.1409067536196644</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>4.434979993042489e-06</v>
+        <v>0.1539990224482883</v>
       </c>
       <c r="I62" t="n">
-        <v>450</v>
+        <v>7.2621379490796</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +2376,25 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D63" t="n">
-        <v>2775505419.79611</v>
+        <v>5592376027.354336</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00336570255081632</v>
+        <v>0.001541526426544644</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0009437524356167253</v>
+        <v>0.2627644820041163</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1.685639873168052e-06</v>
+        <v>0.6224981400394384</v>
       </c>
       <c r="I63" t="n">
-        <v>450</v>
+        <v>7.085320677275923</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +2407,25 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="D64" t="n">
-        <v>2396206003.306677</v>
+        <v>8151820762.574569</v>
       </c>
       <c r="E64" t="n">
-        <v>0.00331276669887613</v>
+        <v>0.001804699437831559</v>
       </c>
       <c r="F64" t="n">
-        <v>0.001093140571547412</v>
+        <v>0.1677320465971779</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1.952462600188043e-06</v>
+        <v>0.2571326214059125</v>
       </c>
       <c r="I64" t="n">
-        <v>450</v>
+        <v>6.592758277251393</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +2438,25 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D65" t="n">
-        <v>1820272257.570522</v>
+        <v>8839906487.075052</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003427462180662559</v>
+        <v>0.00233644233676065</v>
       </c>
       <c r="F65" t="n">
-        <v>0.001439010010236624</v>
+        <v>0.1366008556499505</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>2.570221341529783e-06</v>
+        <v>0.1374443941453215</v>
       </c>
       <c r="I65" t="n">
-        <v>450</v>
+        <v>5.822340164392514</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +2469,25 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="D66" t="n">
-        <v>3590032980.804874</v>
+        <v>11394779676.99808</v>
       </c>
       <c r="E66" t="n">
-        <v>0.00443694832660471</v>
+        <v>0.001461693853076115</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0007296283945037019</v>
+        <v>0.1080418696014957</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1.30319209567636e-06</v>
+        <v>0.02764536916443087</v>
       </c>
       <c r="I66" t="n">
-        <v>450</v>
+        <v>5.936008410552021</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +2500,25 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D67" t="n">
-        <v>1500136043.622596</v>
+        <v>5705832460.504685</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001518861118453455</v>
+        <v>0.004617733709396809</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001746101636005345</v>
+        <v>0.2107142153791273</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>3.118718881325254e-06</v>
+        <v>0.4223835941055356</v>
       </c>
       <c r="I67" t="n">
-        <v>450</v>
+        <v>5.797080554134846</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +2531,25 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D68" t="n">
-        <v>4145381257.923578</v>
+        <v>8347285360.36344</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003089037554167409</v>
+        <v>0.004903775497223803</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0006318815657771495</v>
+        <v>0.139955433361288</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1.128606107064279e-06</v>
+        <v>0.1503415383682486</v>
       </c>
       <c r="I68" t="n">
-        <v>450</v>
+        <v>5.632893087460003</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +2562,25 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>450</v>
+        <v>544</v>
       </c>
       <c r="D69" t="n">
-        <v>3516472082.361291</v>
+        <v>8000626311.259734</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002974308754870507</v>
+        <v>0.001009454970858385</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0007448914533230404</v>
+        <v>0.1781045763872998</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1.330453504030314e-06</v>
+        <v>0.2970112661031828</v>
       </c>
       <c r="I69" t="n">
-        <v>450</v>
+        <v>6.870613990085743</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +2593,25 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="D70" t="n">
-        <v>4332103328.278568</v>
+        <v>8383965092.579226</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001063109582620098</v>
+        <v>0.002152856045830613</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0006046462426003254</v>
+        <v>0.1584012713954952</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1.079960991064688e-06</v>
+        <v>0.2212591482468027</v>
       </c>
       <c r="I70" t="n">
-        <v>450</v>
+        <v>4.946254644247843</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +2624,25 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D71" t="n">
-        <v>504297073.4791481</v>
+        <v>8558805466.577349</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004812645225515649</v>
+        <v>0.004135454195375603</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00519414079072245</v>
+        <v>0.1276212707796013</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>9.277274943368876e-06</v>
+        <v>0.1029211214414281</v>
       </c>
       <c r="I71" t="n">
-        <v>450</v>
+        <v>5.266628738723814</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +2655,25 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D72" t="n">
-        <v>4630688955.057376</v>
+        <v>10519176001.30852</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002809482020246182</v>
+        <v>0.00148032754405016</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0005656588091798415</v>
+        <v>0.1162881132369906</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1.010325385533131e-06</v>
+        <v>0.05934920869837013</v>
       </c>
       <c r="I72" t="n">
-        <v>450</v>
+        <v>3.774298892319438</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +2686,25 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D73" t="n">
-        <v>2660087432.532396</v>
+        <v>10249393099.89084</v>
       </c>
       <c r="E73" t="n">
-        <v>0.002224968725751194</v>
+        <v>0.004150488471087899</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009847007162115523</v>
+        <v>0.1300827763171851</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1.758777755417021e-06</v>
+        <v>0.1123847245102905</v>
       </c>
       <c r="I73" t="n">
-        <v>450</v>
+        <v>6.42857081057655</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +2717,25 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D74" t="n">
-        <v>1464896044.314089</v>
+        <v>9098579754.908735</v>
       </c>
       <c r="E74" t="n">
-        <v>0.003468514637626379</v>
+        <v>0.001253580176352478</v>
       </c>
       <c r="F74" t="n">
-        <v>0.001788106405343241</v>
+        <v>0.1304141637446033</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>3.193743762201896e-06</v>
+        <v>0.1136587899256281</v>
       </c>
       <c r="I74" t="n">
-        <v>450</v>
+        <v>5.721301723361841</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +2748,25 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>450</v>
+        <v>568</v>
       </c>
       <c r="D75" t="n">
-        <v>1176742228.621739</v>
+        <v>8008881145.771207</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000635704185960415</v>
+        <v>0.002257239628741936</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002225967536720395</v>
+        <v>0.1857704581851093</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>3.975809221431661e-06</v>
+        <v>0.3264838232027293</v>
       </c>
       <c r="I75" t="n">
-        <v>450</v>
+        <v>7.173729313177761</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +2779,25 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D76" t="n">
-        <v>4319411996.400764</v>
+        <v>6976462379.504103</v>
       </c>
       <c r="E76" t="n">
-        <v>0.002726813800930032</v>
+        <v>0.001551751745503338</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0006064228191667427</v>
+        <v>0.1667047131819649</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1.083134141337017e-06</v>
+        <v>0.2531828940896383</v>
       </c>
       <c r="I76" t="n">
-        <v>450</v>
+        <v>4.534079478502274</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +2810,25 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D77" t="n">
-        <v>3601338091.852296</v>
+        <v>4875990728.467049</v>
       </c>
       <c r="E77" t="n">
-        <v>0.00344608582593801</v>
+        <v>0.003583660996018748</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0007273379874902982</v>
+        <v>0.2793448297692359</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1.299101190856545e-06</v>
+        <v>0.6862436110924177</v>
       </c>
       <c r="I77" t="n">
-        <v>450</v>
+        <v>5.092762487905997</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +2841,25 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D78" t="n">
-        <v>1115656505.398739</v>
+        <v>11151851319.04516</v>
       </c>
       <c r="E78" t="n">
-        <v>0.004005852520261659</v>
+        <v>0.002291478011280351</v>
       </c>
       <c r="F78" t="n">
-        <v>0.002347846301549437</v>
+        <v>0.1122744900536572</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>4.193497354394256e-06</v>
+        <v>0.04391827177984611</v>
       </c>
       <c r="I78" t="n">
-        <v>450</v>
+        <v>3.83552223782344</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +2872,25 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D79" t="n">
-        <v>2736362818.375944</v>
+        <v>10043522484.19598</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001681140985233018</v>
+        <v>0.003928845664380482</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0009572524456221897</v>
+        <v>0.1108416645406772</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.709752293220783e-06</v>
+        <v>0.03840957325581507</v>
       </c>
       <c r="I79" t="n">
-        <v>450</v>
+        <v>5.367667179754487</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +2903,25 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D80" t="n">
-        <v>3802107466.613652</v>
+        <v>10588649383.17587</v>
       </c>
       <c r="E80" t="n">
-        <v>0.004946010538108961</v>
+        <v>0.002232241306376718</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0006889310791451564</v>
+        <v>0.1142882473682433</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1.230502463405976e-06</v>
+        <v>0.05166044404445459</v>
       </c>
       <c r="I80" t="n">
-        <v>450</v>
+        <v>5.834969969521348</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +2934,25 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="D81" t="n">
-        <v>4206508177.990417</v>
+        <v>9112984856.04143</v>
       </c>
       <c r="E81" t="n">
-        <v>0.004994294820225974</v>
+        <v>0.001917182933926802</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0006226993718222998</v>
+        <v>0.1218724026808534</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>1.112205754949328e-06</v>
+        <v>0.08081879221603799</v>
       </c>
       <c r="I81" t="n">
-        <v>450</v>
+        <v>5.355037374625653</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +2965,25 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D82" t="n">
-        <v>1499691726.662421</v>
+        <v>10649791128.12512</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0007745767983105118</v>
+        <v>0.003206823848763001</v>
       </c>
       <c r="F82" t="n">
-        <v>0.001746618957370311</v>
+        <v>0.1077291381771897</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>3.119642871014837e-06</v>
+        <v>0.02644302936807306</v>
       </c>
       <c r="I82" t="n">
-        <v>450</v>
+        <v>4.029580100820034</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +2996,25 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D83" t="n">
-        <v>870360888.1690898</v>
+        <v>4005917792.579385</v>
       </c>
       <c r="E83" t="n">
-        <v>0.003172261218609759</v>
+        <v>0.001812576781077812</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003009544702209915</v>
+        <v>0.2857456116848948</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>5.375359425495503e-06</v>
+        <v>0.7108523143657853</v>
       </c>
       <c r="I83" t="n">
-        <v>450</v>
+        <v>5.519224841300496</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +3027,25 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="D84" t="n">
-        <v>2323146945.48481</v>
+        <v>6081432388.982442</v>
       </c>
       <c r="E84" t="n">
-        <v>0.002935398776652351</v>
+        <v>0.001655168646819171</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001127518000999015</v>
+        <v>0.2265583257155205</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>2.013864259811603e-06</v>
+        <v>0.4832984971652593</v>
       </c>
       <c r="I84" t="n">
-        <v>450</v>
+        <v>6.643277497766729</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +3058,25 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="D85" t="n">
-        <v>3711973462.863582</v>
+        <v>5607888723.185783</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001731753187169573</v>
+        <v>0.002764320414065716</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0007056596783909349</v>
+        <v>0.2256045782023422</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1.26038147918039e-06</v>
+        <v>0.4796316811639051</v>
       </c>
       <c r="I85" t="n">
-        <v>450</v>
+        <v>6.100195877226864</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +3089,25 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="D86" t="n">
-        <v>1853577278.109043</v>
+        <v>5692916516.440256</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003016779688830322</v>
+        <v>0.003747675497186098</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001413153921843611</v>
+        <v>0.2364985427261938</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2.524039682108752e-06</v>
+        <v>0.5215150547845885</v>
       </c>
       <c r="I86" t="n">
-        <v>450</v>
+        <v>6.491719836220721</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +3120,25 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="D87" t="n">
-        <v>1389707911.595429</v>
+        <v>4760898248.951042</v>
       </c>
       <c r="E87" t="n">
-        <v>0.003072457253250685</v>
+        <v>0.00213187991332115</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001884849311243293</v>
+        <v>0.2283280996899076</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>3.366536640373071e-06</v>
+        <v>0.4901026412792894</v>
       </c>
       <c r="I87" t="n">
-        <v>450</v>
+        <v>5.241369128466146</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +3151,25 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D88" t="n">
-        <v>2923311899.978363</v>
+        <v>5667283492.577682</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0009117920891983977</v>
+        <v>0.004376081163326431</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0008960350758396283</v>
+        <v>0.2075255475644232</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1.600411712426917e-06</v>
+        <v>0.4101243137358321</v>
       </c>
       <c r="I88" t="n">
-        <v>450</v>
+        <v>5.670782502846505</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +3182,25 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D89" t="n">
-        <v>1872636609.152395</v>
+        <v>6315512249.345007</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0005019296093609231</v>
+        <v>0.002511555927821913</v>
       </c>
       <c r="F89" t="n">
-        <v>0.001398771116188744</v>
+        <v>0.2111102721934038</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>2.498350497334328e-06</v>
+        <v>0.423906290043368</v>
       </c>
       <c r="I89" t="n">
-        <v>450</v>
+        <v>4.783104890260302</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +3213,25 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D90" t="n">
-        <v>483743772.0375717</v>
+        <v>10008097926.32817</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004930920503004112</v>
+        <v>0.00104923938025695</v>
       </c>
       <c r="F90" t="n">
-        <v>0.005414829402282322</v>
+        <v>0.1193475372435953</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>9.671447725509903e-06</v>
+        <v>0.0711115931317101</v>
       </c>
       <c r="I90" t="n">
-        <v>450</v>
+        <v>5.759191138748344</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +3244,25 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D91" t="n">
-        <v>1668980990.983274</v>
+        <v>5689157139.805227</v>
       </c>
       <c r="E91" t="n">
-        <v>0.004410033783401334</v>
+        <v>0.001304259300510288</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00156945466374473</v>
+        <v>0.2214610282399643</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>2.803209041372024e-06</v>
+        <v>0.4637012225314876</v>
       </c>
       <c r="I91" t="n">
-        <v>450</v>
+        <v>6.074936266969195</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +3275,25 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>450</v>
+        <v>549</v>
       </c>
       <c r="D92" t="n">
-        <v>4362899460.142323</v>
+        <v>9870467451.95702</v>
       </c>
       <c r="E92" t="n">
-        <v>0.003740441218364305</v>
+        <v>0.004153207347415489</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0006003782631091281</v>
+        <v>0.1456916926173419</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1.072337936398318e-06</v>
+        <v>0.1723953911305181</v>
       </c>
       <c r="I92" t="n">
-        <v>450</v>
+        <v>6.933763015729913</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +3306,25 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D93" t="n">
-        <v>467494237.3542276</v>
+        <v>9364590750.834061</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003132384002795019</v>
+        <v>0.003862009272679614</v>
       </c>
       <c r="F93" t="n">
-        <v>0.005603042328017506</v>
+        <v>0.1345415537660078</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1.000761555967027e-05</v>
+        <v>0.129527119399832</v>
       </c>
       <c r="I93" t="n">
-        <v>450</v>
+        <v>4.068307474652467</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +3337,25 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D94" t="n">
-        <v>3088201717.775626</v>
+        <v>7484063173.993542</v>
       </c>
       <c r="E94" t="n">
-        <v>0.003884378204244046</v>
+        <v>0.004689348671871648</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0008481926504097336</v>
+        <v>0.158898052081171</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>1.5149601714399e-06</v>
+        <v>0.2231690912267109</v>
       </c>
       <c r="I94" t="n">
-        <v>450</v>
+        <v>5.733931528490675</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +3368,25 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="D95" t="n">
-        <v>2864211086.268296</v>
+        <v>6983360419.547894</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0006846881740966699</v>
+        <v>0.001191019939142208</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0009145240769990639</v>
+        <v>0.2186775818881285</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1.633434988863844e-06</v>
+        <v>0.4529998728757381</v>
       </c>
       <c r="I95" t="n">
-        <v>450</v>
+        <v>7.363176390110272</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +3399,25 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>450</v>
+        <v>595</v>
       </c>
       <c r="D96" t="n">
-        <v>3929859575.691922</v>
+        <v>6762845674.451956</v>
       </c>
       <c r="E96" t="n">
-        <v>0.003092550209794676</v>
+        <v>0.002045385215249732</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0006665352666039752</v>
+        <v>0.2304558058877042</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>1.190501216059004e-06</v>
+        <v>0.4982829059976339</v>
       </c>
       <c r="I96" t="n">
-        <v>450</v>
+        <v>7.514734051656282</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +3430,25 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>450</v>
+        <v>599</v>
       </c>
       <c r="D97" t="n">
-        <v>356891730.9061045</v>
+        <v>10477443825.83162</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0006378078790579216</v>
+        <v>0.003263687175329887</v>
       </c>
       <c r="F97" t="n">
-        <v>0.007339452761625182</v>
+        <v>0.1497516604318768</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>1.310902494693337e-05</v>
+        <v>0.1880045064798304</v>
       </c>
       <c r="I97" t="n">
-        <v>450</v>
+        <v>7.565253272171618</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +3461,25 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="D98" t="n">
-        <v>1335580020.245311</v>
+        <v>7223332348.751714</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001147108423694674</v>
+        <v>0.001715347788404721</v>
       </c>
       <c r="F98" t="n">
-        <v>0.001961237784553626</v>
+        <v>0.1479526440708058</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>3.502974387819187e-06</v>
+        <v>0.1810879359112841</v>
       </c>
       <c r="I98" t="n">
-        <v>450</v>
+        <v>2.41147295029267</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +3492,25 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="D99" t="n">
-        <v>2976830247.035522</v>
+        <v>10349259643.25007</v>
       </c>
       <c r="E99" t="n">
-        <v>0.003834960458402864</v>
+        <v>0.004233064340437886</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0008799258884877702</v>
+        <v>0.1349019077814498</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1.571639030630465e-06</v>
+        <v>0.1309125509230782</v>
       </c>
       <c r="I99" t="n">
-        <v>450</v>
+        <v>2.670071594218413</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +3523,25 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D100" t="n">
-        <v>2363047043.720602</v>
+        <v>8448068381.884256</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00169563756115441</v>
+        <v>0.001900736546156981</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00110847983621849</v>
+        <v>0.1379757475092807</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1.979860120108351e-06</v>
+        <v>0.1427303586173268</v>
       </c>
       <c r="I100" t="n">
-        <v>450</v>
+        <v>5.620263282331169</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +3554,25 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>450</v>
+        <v>649</v>
       </c>
       <c r="D101" t="n">
-        <v>1002716269.802948</v>
+        <v>7211595314.188211</v>
       </c>
       <c r="E101" t="n">
-        <v>0.002064102610723788</v>
+        <v>0.004566768039588344</v>
       </c>
       <c r="F101" t="n">
-        <v>0.002612294303865996</v>
+        <v>0.2357292715323922</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>4.665828953510214e-06</v>
+        <v>0.518557483851153</v>
       </c>
       <c r="I101" t="n">
-        <v>450</v>
+        <v>8.196743528613322</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_7.xlsx
+++ b/output/fit_clients/fit_round_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>8028405921.348224</v>
+        <v>10910852208.67282</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.15497600173548</v>
+        <v>0.1145143391280507</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2080902189182824</v>
+        <v>0.1378863181271258</v>
       </c>
       <c r="I2" t="n">
-        <v>4.147624669602355</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.645637163430006</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8077764776755882</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9.50989239008176</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>7349031933.447765</v>
+        <v>9515428521.616266</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1978167278581921</v>
+        <v>0.165442195947745</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3727973954884279</v>
+        <v>0.3009231491709935</v>
       </c>
       <c r="I3" t="n">
-        <v>7.009541846502918</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4946317272003546</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.887136176175074</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8810394374510279</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10.73365257284548</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>5854058239.69255</v>
+        <v>11275052700.50183</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.253703340347704</v>
+        <v>0.116158658836398</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5876613108396974</v>
+        <v>0.1431503266916537</v>
       </c>
       <c r="I4" t="n">
-        <v>7.161099508048927</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.521506629954432</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8225443277822566</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.929379925690702</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>9601736536.22954</v>
+        <v>4808682615.139655</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1511332928709833</v>
+        <v>0.2238802965723979</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1933163860556136</v>
+        <v>0.488002742404174</v>
       </c>
       <c r="I5" t="n">
-        <v>6.996912041374084</v>
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9117392388693826</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01687229370702229</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.537055538342221</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9023506951977078</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13.50995836561193</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>4201965448.797377</v>
+        <v>3577783158.416059</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2911149900935291</v>
+        <v>0.3763130408931931</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7314956422844034</v>
+        <v>0.9759901256033029</v>
       </c>
       <c r="I6" t="n">
-        <v>5.898118995165518</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.59761526526249</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8312389391619549</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10.02716351797661</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>10612059756.78082</v>
+        <v>6588289033.695462</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1108273169351973</v>
+        <v>0.2433206363292804</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0383544118754414</v>
+        <v>0.5502376681659147</v>
       </c>
       <c r="I7" t="n">
-        <v>3.76682333255501</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4772818131828728</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.869786262157592</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8868858062949723</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.86792986374185</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>6580297746.169048</v>
+        <v>12162729771.00902</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2324702952675025</v>
+        <v>0.09906652722582356</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5060278927895645</v>
+        <v>0.08843278804794739</v>
       </c>
       <c r="I8" t="n">
-        <v>7.375806195239107</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.501840253802245</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7964420075096662</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9.426999896391079</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>7443626772.107326</v>
+        <v>10252674676.53463</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1562422721620078</v>
+        <v>0.1300411406841439</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.212958573066395</v>
+        <v>0.1875927200853859</v>
       </c>
       <c r="I9" t="n">
-        <v>5.607633477202334</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6.807055475116389</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8281581387695919</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9.756107300275449</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>8558475075.644377</v>
+        <v>9177552696.794704</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.169250089203647</v>
+        <v>0.1489854240202339</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2629689489907559</v>
+        <v>0.2482396059821993</v>
       </c>
       <c r="I10" t="n">
-        <v>6.98428223624525</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.480794416546213</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.8361135040232524</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10.24147566391883</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>6292372889.704193</v>
+        <v>12116415933.16236</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1710911461972512</v>
+        <v>0.125171240271558</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2700471506639182</v>
+        <v>0.1720025660842422</v>
       </c>
       <c r="I11" t="n">
-        <v>3.341108567328066</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1639099209783007</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.55641436995302</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.869067254863084</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10.82493072730866</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>4295230865.801661</v>
+        <v>12943621842.77548</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2951610285011725</v>
+        <v>0.0983514162777045</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7470512040764343</v>
+        <v>0.08614348254587449</v>
       </c>
       <c r="I12" t="n">
-        <v>6.112825682355698</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.553268252430171</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8136298164757353</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.719328077084533</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>9670848879.760775</v>
+        <v>10665612342.11694</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1281140348075265</v>
+        <v>0.1343388718847447</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1048156218175982</v>
+        <v>0.2013511721267713</v>
       </c>
       <c r="I13" t="n">
-        <v>4.544300977668851</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1720753763549043</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6.564579825329623</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8509342646151978</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10.45410546697433</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>3838879228.265833</v>
+        <v>5856227312.480846</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3609536084900367</v>
+        <v>0.2750789482790024</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.6519064770049893</v>
       </c>
       <c r="I14" t="n">
-        <v>6.681166913153231</v>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2040126255110894</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6.596517074485809</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8884647617222448</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11.17277815995909</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>6180192593.231222</v>
+        <v>9783360864.305246</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2377721677491778</v>
+        <v>0.1004022302380599</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.526411684709672</v>
+        <v>0.09270881299637107</v>
       </c>
       <c r="I15" t="n">
-        <v>7.085320677275923</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.91180973596319</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.626027354549383</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.86758838017423</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12.72574024893522</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>8363336422.610826</v>
+        <v>5104196243.014709</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1869799026345789</v>
+        <v>0.2612104720355592</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3311337019167359</v>
+        <v>0.6075089201601513</v>
       </c>
       <c r="I16" t="n">
-        <v>7.539993661913949</v>
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5258316820720482</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.046014926707246</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.754218218668121</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10.03834944665517</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>11505953990.77913</v>
+        <v>4333260892.160735</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1008512437065137</v>
+        <v>0.3312576269286754</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.8317529168758405</v>
       </c>
       <c r="I17" t="n">
-        <v>3.295549158733291</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.802541167376121</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8515146798861518</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10.22775243034692</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>9473069996.072027</v>
+        <v>4383508888.357373</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1288532377050029</v>
+        <v>0.2503757692644428</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1076575909711339</v>
+        <v>0.5728234706750296</v>
       </c>
       <c r="I18" t="n">
-        <v>5.885489190036685</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.9304855608706906</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.553302438724527</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.9666509722821497</v>
+      </c>
+      <c r="N18" t="n">
+        <v>12.77971700691847</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>5886800311.101475</v>
+        <v>5127124667.82475</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2233698631700255</v>
+        <v>0.255444344511259</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4710400059818029</v>
+        <v>0.5890496482083583</v>
       </c>
       <c r="I19" t="n">
-        <v>6.340162174674711</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6.893742083894393</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.8225443277822566</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9.557144471750741</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>10802579408.58691</v>
+        <v>3855928031.467049</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1418497464394428</v>
+        <v>0.3838130115299189</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1576244905233798</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>7.388436000367941</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7.13839681453198</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8612435540924508</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10.08647426731704</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>7022430871.386431</v>
+        <v>8578336812.908655</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2014217905317369</v>
+        <v>0.1151167238518774</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3866575642590777</v>
+        <v>0.1398147498848112</v>
       </c>
       <c r="I21" t="n">
-        <v>6.820094769570407</v>
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.9111370963785387</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2431191807005225</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.763302425335721</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.86932764915488</v>
+      </c>
+      <c r="N21" t="n">
+        <v>12.62325055776188</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>10471174018.50288</v>
+        <v>12708098274.16958</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1370835512296482</v>
+        <v>0.1244963271346266</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1393001849609854</v>
+        <v>0.169841947005675</v>
       </c>
       <c r="I22" t="n">
-        <v>6.92113321060108</v>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.161741325385484</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.554245774360203</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8826428747370276</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11.09861172038035</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>9674208690.048126</v>
+        <v>13021219077.77995</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1294233420132858</v>
+        <v>0.1082257975679698</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1098494368959387</v>
+        <v>0.1177546269100166</v>
       </c>
       <c r="I23" t="n">
-        <v>6.037046851582693</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6.864409799142814</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.8456684562439317</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10.04895932573582</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>9545462800.439411</v>
+        <v>11974705460.93395</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1440663254102982</v>
+        <v>0.12446509977739</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1661464390750591</v>
+        <v>0.1697419779576201</v>
       </c>
       <c r="I24" t="n">
-        <v>6.630647692637895</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2958346413341096</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6.688339090308829</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8634958040280878</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10.58157699025293</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>4005750066.455345</v>
+        <v>3777695720.348571</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3302232860400419</v>
+        <v>0.3418378200880735</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8818529678668204</v>
+        <v>0.8656235973297093</v>
       </c>
       <c r="I25" t="n">
-        <v>4.02660230485511</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6.725336074578613</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8181154033491993</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9.636971992405371</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>6656364638.199552</v>
+        <v>11514214979.17458</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1644899400066754</v>
+        <v>0.134447679915646</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2446678881721304</v>
+        <v>0.2016995024445593</v>
       </c>
       <c r="I26" t="n">
-        <v>5.279258543852648</v>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1696876071254212</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6.562192056100141</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8756448577419385</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10.95070509873863</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>11341793255.5769</v>
+        <v>9445408832.589039</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1291011903501253</v>
+        <v>0.1627861702179534</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1086108796708684</v>
+        <v>0.2924203366593792</v>
       </c>
       <c r="I27" t="n">
-        <v>7.060061067018254</v>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1838243751710803</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6.5763288241458</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8734651508433446</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10.89297419272109</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>9226832052.920246</v>
+        <v>7003795640.232742</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1249108679327516</v>
+        <v>0.2161695597317126</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.09250059777911704</v>
+        <v>0.46331813602128</v>
       </c>
       <c r="I28" t="n">
-        <v>5.557114256686998</v>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1420629781834575</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6.534567427158176</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.868513853967392</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10.83570965218966</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>7670116655.355911</v>
+        <v>4288534061.676124</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1779245676852974</v>
+        <v>0.3774676839962692</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2963191974164863</v>
+        <v>0.9796865181921108</v>
       </c>
       <c r="I29" t="n">
-        <v>6.580128472122559</v>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2572236769242652</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6.649728125898984</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8900371966513851</v>
+      </c>
+      <c r="N29" t="n">
+        <v>11.15101580712872</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>10883216808.63199</v>
+        <v>9761603513.340515</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1415207789280091</v>
+        <v>0.1279962895739889</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1563597288142444</v>
+        <v>0.1810464786808725</v>
       </c>
       <c r="I30" t="n">
-        <v>5.075855021206838</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6.481421298106848</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8077764776755882</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9.674108255404917</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>4465810735.084175</v>
+        <v>6480126689.332706</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3296371627294798</v>
+        <v>0.15158210588953</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8795995346423672</v>
+        <v>0.2565524392651305</v>
       </c>
       <c r="I31" t="n">
-        <v>7.097950482404757</v>
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8865477345836438</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.261757732609218</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.781940977244417</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.8569171431159743</v>
+      </c>
+      <c r="N31" t="n">
+        <v>12.35640188507507</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>5250756274.682796</v>
+        <v>14555679402.1032</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2234890858785655</v>
+        <v>0.07144275449277496</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4714983743962509</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>5.658152697717671</v>
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.9080401230767304</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.2873250369089098</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.807508281544108</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.8876537529921548</v>
+      </c>
+      <c r="N32" t="n">
+        <v>12.94556677829899</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>8925046228.111872</v>
+        <v>8153785146.698812</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1229712857444981</v>
+        <v>0.16672789208217</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08504360218483344</v>
+        <v>0.3050390856452913</v>
       </c>
       <c r="I33" t="n">
-        <v>5.291888348981482</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6.590597381463075</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.8342933248675654</v>
+      </c>
+      <c r="N33" t="n">
+        <v>10.09526911588823</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>10708882387.52186</v>
+        <v>4013705862.669208</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1313500680182093</v>
+        <v>0.2767072122373738</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1172570050913569</v>
+        <v>0.6571190858295796</v>
       </c>
       <c r="I34" t="n">
-        <v>6.782205354183905</v>
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9068396396324863</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.2903251890277585</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.810508433662957</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.9121299221036929</v>
+      </c>
+      <c r="N34" t="n">
+        <v>13.4320900084109</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>6495582729.945724</v>
+        <v>5508585165.145576</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1911438760183991</v>
+        <v>0.2905369059421095</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3471426812556425</v>
+        <v>0.701392487003915</v>
       </c>
       <c r="I35" t="n">
-        <v>4.144049066235366</v>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4403274450095466</v>
+      </c>
+      <c r="L35" t="n">
+        <v>6.832831893984266</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.886358027432868</v>
+      </c>
+      <c r="N35" t="n">
+        <v>10.89432865467309</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>5531345477.894641</v>
+        <v>14487726297.28401</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2793967771812783</v>
+        <v>0.08371069035362418</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6864433301994917</v>
+        <v>0.03927370031068751</v>
       </c>
       <c r="I36" t="n">
-        <v>7.451585026012111</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6.537247419054013</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7984695993236051</v>
+      </c>
+      <c r="N36" t="n">
+        <v>9.432144567418089</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>4145582636.048746</v>
+        <v>4232260829.492197</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.290019549856553</v>
+        <v>0.2339481095069463</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7272840687453171</v>
+        <v>0.5202331251238426</v>
       </c>
       <c r="I37" t="n">
-        <v>5.797080554134846</v>
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8783561523172998</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.07375360885202124</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.59393685348722</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.8564176062592922</v>
+      </c>
+      <c r="N37" t="n">
+        <v>12.53441527169863</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>8677973959.411304</v>
+        <v>6241152683.240656</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1234539899532813</v>
+        <v>0.2018740213459729</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.08689942617622604</v>
+        <v>0.4175534127043611</v>
       </c>
       <c r="I38" t="n">
-        <v>5.165590297693141</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>6.577767698245247</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.8103901447187912</v>
+      </c>
+      <c r="N38" t="n">
+        <v>9.630035196130578</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>11072385598.62362</v>
+        <v>10264711147.39942</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1052734787474252</v>
+        <v>0.1462204292402576</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01700190248017144</v>
+        <v>0.2393879476770762</v>
       </c>
       <c r="I39" t="n">
-        <v>3.700681384761236</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>7.272110029663334</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8657344295406615</v>
+      </c>
+      <c r="N39" t="n">
+        <v>10.0425785611499</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>6511962617.38905</v>
+        <v>8285574565.985446</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2139931633327965</v>
+        <v>0.1678696002218132</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.434989969124072</v>
+        <v>0.3086940691589983</v>
       </c>
       <c r="I40" t="n">
-        <v>6.719056328539734</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>6.793462325983909</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.8415192935744177</v>
+      </c>
+      <c r="N40" t="n">
+        <v>10.03692354550444</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>7793023484.624671</v>
+        <v>14389593580.46414</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1643626138849869</v>
+        <v>0.08155106768221516</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2441783650499763</v>
+        <v>0.03236003736501145</v>
       </c>
       <c r="I41" t="n">
-        <v>6.175974707999869</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>6.643092566798337</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7882086814788808</v>
+      </c>
+      <c r="N41" t="n">
+        <v>9.121081062779279</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>9283215732.316658</v>
+        <v>9027604664.452311</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.131206295870067</v>
+        <v>0.1253462598396416</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1167042529152591</v>
+        <v>0.1725628613240761</v>
       </c>
       <c r="I42" t="n">
-        <v>3.995722102094664</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6.594474643275462</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7769087142751011</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8.943699642226559</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>6660486902.489964</v>
+        <v>8448723708.176731</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1915239754503702</v>
+        <v>0.117192780140478</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3486040268004529</v>
+        <v>0.1464608893357697</v>
       </c>
       <c r="I43" t="n">
-        <v>6.1507150977422</v>
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.9344186757562576</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1181933448682047</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.638376589503403</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8799098495245358</v>
+      </c>
+      <c r="N43" t="n">
+        <v>12.95982040098731</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>4415321090.209537</v>
+        <v>6447450430.60886</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3411188493946027</v>
+        <v>0.2392915969815847</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9237424884162742</v>
+        <v>0.5373393871774765</v>
       </c>
       <c r="I44" t="n">
-        <v>7.2621379490796</v>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1247518777827504</v>
+      </c>
+      <c r="L44" t="n">
+        <v>6.51725632675747</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8745565888026017</v>
+      </c>
+      <c r="N44" t="n">
+        <v>10.97387544929456</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>5799373007.339278</v>
+        <v>11898663729.92743</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2700973394913003</v>
+        <v>0.08277321406460207</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6506903384967146</v>
+        <v>0.03627253016755629</v>
       </c>
       <c r="I45" t="n">
-        <v>7.552623467042784</v>
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.8875024800229893</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.387005858048631</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.907189102683829</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.8583379317999701</v>
+      </c>
+      <c r="N45" t="n">
+        <v>12.25956953331557</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>9327113686.553909</v>
+        <v>10430029619.12358</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1151427908022844</v>
+        <v>0.1491767249775788</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.05494585605811439</v>
+        <v>0.2488520233075856</v>
       </c>
       <c r="I46" t="n">
-        <v>5.178220102821975</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5126239661604088</v>
+      </c>
+      <c r="L46" t="n">
+        <v>6.905128415135128</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8772713678511687</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10.64029894188825</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>5284660099.182248</v>
+        <v>11590379586.63143</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2354380843136023</v>
+        <v>0.09469270629116461</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.5174379737727567</v>
+        <v>0.07443074772520676</v>
       </c>
       <c r="I47" t="n">
-        <v>5.999157436196191</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>6.64080887054638</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.767436687039167</v>
+      </c>
+      <c r="N47" t="n">
+        <v>8.70792487023696</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>6015994442.290919</v>
+        <v>12611934556.91232</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.254711530188262</v>
+        <v>0.1210840702597071</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5915374379998527</v>
+        <v>0.1589181897078931</v>
       </c>
       <c r="I48" t="n">
-        <v>7.388436000367941</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2364238167667653</v>
+      </c>
+      <c r="L48" t="n">
+        <v>6.628928265741485</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8712726775908358</v>
+      </c>
+      <c r="N48" t="n">
+        <v>10.79652528607523</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>4129579014.303907</v>
+        <v>5803966713.285059</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2790917902304078</v>
+        <v>0.194514742377116</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6852707651168007</v>
+        <v>0.3939939386409205</v>
       </c>
       <c r="I49" t="n">
-        <v>5.557114256686998</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>6.731715857737856</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7761896283267722</v>
+      </c>
+      <c r="N49" t="n">
+        <v>8.792076708797588</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>7459887425.242158</v>
+        <v>11301772869.32834</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1857477507383457</v>
+        <v>0.1207511605284192</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3263965212407404</v>
+        <v>0.1578524360908696</v>
       </c>
       <c r="I50" t="n">
-        <v>6.681166913153231</v>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06182389313638753</v>
+      </c>
+      <c r="L50" t="n">
+        <v>6.454328342111107</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8355078053508687</v>
+      </c>
+      <c r="N50" t="n">
+        <v>10.25582776490626</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>6789710355.913598</v>
+        <v>13165529827.74389</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1840209617943089</v>
+        <v>0.102264510248785</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3197576391011107</v>
+        <v>0.09867058422385278</v>
       </c>
       <c r="I51" t="n">
-        <v>6.024417046453859</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>6.499516679905015</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.8312389391619549</v>
+      </c>
+      <c r="N51" t="n">
+        <v>10.12526210333408</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>6348395900.643472</v>
+        <v>4438776159.989228</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2207445269533296</v>
+        <v>0.2525693748888479</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4609465329029215</v>
+        <v>0.5798459242377073</v>
       </c>
       <c r="I52" t="n">
-        <v>6.756945743926236</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.8890734519083997</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.053306532936728</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.9081813254747171</v>
+      </c>
+      <c r="N52" t="n">
+        <v>13.11031997655762</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>7706748214.92239</v>
+        <v>5363619322.649514</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1546466053856934</v>
+        <v>0.2578553466983948</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2068238084799893</v>
+        <v>0.5967680597178416</v>
       </c>
       <c r="I53" t="n">
-        <v>5.74656133361951</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.07673591479621576</v>
+      </c>
+      <c r="L53" t="n">
+        <v>6.469240363770935</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8397263773555644</v>
+      </c>
+      <c r="N53" t="n">
+        <v>10.32528718334035</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>8083404506.582811</v>
+        <v>10945268318.56419</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1791971030053462</v>
+        <v>0.1455048038702552</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.3012116378258917</v>
+        <v>0.2370969953412483</v>
       </c>
       <c r="I54" t="n">
-        <v>6.98428223624525</v>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.1669714153500969</v>
+      </c>
+      <c r="L54" t="n">
+        <v>6.559475864324816</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.8847702750679276</v>
+      </c>
+      <c r="N54" t="n">
+        <v>11.13592963703373</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>9585389454.300186</v>
+        <v>8251236795.638672</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1549435353754681</v>
+        <v>0.1603143847112937</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2079653974464019</v>
+        <v>0.2845073377391081</v>
       </c>
       <c r="I55" t="n">
-        <v>7.161099508048927</v>
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.9151073833448802</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3164783162604135</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.007192480671848</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.9350303631051782</v>
+      </c>
+      <c r="N55" t="n">
+        <v>14.69341478143172</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>9040450927.882967</v>
+        <v>14671225399.33155</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1697882718732314</v>
+        <v>0.08534177520420665</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2650380677011233</v>
+        <v>0.04449533973965696</v>
       </c>
       <c r="I56" t="n">
-        <v>7.401065805496775</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>6.663116783107448</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.8084317442034455</v>
+      </c>
+      <c r="N56" t="n">
+        <v>9.505518100961464</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>9764155145.179581</v>
+        <v>6409271459.029997</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1118668859475513</v>
+        <v>0.1536665510730383</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.04235118065998966</v>
+        <v>0.2632254343296396</v>
       </c>
       <c r="I57" t="n">
-        <v>5.266628738723814</v>
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.8120308046097173</v>
+      </c>
+      <c r="N57" t="n">
+        <v>16.24061609219435</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>6762571652.258092</v>
+        <v>6768439912.7758</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1684913238027624</v>
+        <v>0.2391663427408816</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2600517690507884</v>
+        <v>0.5369384071293404</v>
       </c>
       <c r="I58" t="n">
-        <v>5.493965231042828</v>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2010660388926516</v>
+      </c>
+      <c r="L58" t="n">
+        <v>6.593570487867371</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8900371966513851</v>
+      </c>
+      <c r="N58" t="n">
+        <v>11.20717344516033</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>5096377373.571731</v>
+        <v>6492976709.007205</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2672649021368294</v>
+        <v>0.2432616411219976</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6398006360642577</v>
+        <v>0.5500488050909139</v>
       </c>
       <c r="I59" t="n">
-        <v>6.567498666993725</v>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4090073128680325</v>
+      </c>
+      <c r="L59" t="n">
+        <v>6.801511761842752</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8821091510798081</v>
+      </c>
+      <c r="N59" t="n">
+        <v>10.84067125975341</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>10492187387.66379</v>
+        <v>11313642579.12355</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.146295761149361</v>
+        <v>0.08983166233971067</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1747178172742475</v>
+        <v>0.05886894617098288</v>
       </c>
       <c r="I60" t="n">
-        <v>7.401065805496775</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>6.433898200769554</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7436760309845282</v>
+      </c>
+      <c r="N60" t="n">
+        <v>8.439622418921008</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>9915877161.265503</v>
+        <v>12220345959.955</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1067211243936935</v>
+        <v>0.08209476010642287</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.02256757908396988</v>
+        <v>0.03410057575482062</v>
       </c>
       <c r="I61" t="n">
-        <v>5.102441272048971</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>6.472245781176822</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.7396737110153105</v>
+      </c>
+      <c r="N61" t="n">
+        <v>8.321228439129388</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>10688978429.41864</v>
+        <v>10470989203.11913</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1409067536196644</v>
+        <v>0.1455913047399459</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1539990224482883</v>
+        <v>0.2373739130942737</v>
       </c>
       <c r="I62" t="n">
-        <v>7.2621379490796</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>7.105233223851572</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8707225431668167</v>
+      </c>
+      <c r="N62" t="n">
+        <v>10.30921763948476</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>5592376027.354336</v>
+        <v>4394562010.701063</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2627644820041163</v>
+        <v>0.3552473343642611</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6224981400394384</v>
+        <v>0.9085518658639095</v>
       </c>
       <c r="I63" t="n">
-        <v>7.085320677275923</v>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.3649754357957464</v>
+      </c>
+      <c r="L63" t="n">
+        <v>6.757479884770466</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8783518110615619</v>
+      </c>
+      <c r="N63" t="n">
+        <v>10.80955633646077</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>8151820762.574569</v>
+        <v>14623532081.6152</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1677320465971779</v>
+        <v>0.08526186649308357</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2571326214059125</v>
+        <v>0.04423952565581613</v>
       </c>
       <c r="I64" t="n">
-        <v>6.592758277251393</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>6.777265394511311</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.8071199685095155</v>
+      </c>
+      <c r="N64" t="n">
+        <v>9.365133975679001</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>8839906487.075052</v>
+        <v>9579194752.42071</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1366008556499505</v>
+        <v>0.1047297185127675</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1374443941453215</v>
+        <v>0.1065625272256134</v>
       </c>
       <c r="I65" t="n">
-        <v>5.822340164392514</v>
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.8939267527186898</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.04800898497035853</v>
+      </c>
+      <c r="L65" t="n">
+        <v>6.440513433945078</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.9234617612847141</v>
+      </c>
+      <c r="N65" t="n">
+        <v>12.02872179174921</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>11394779676.99808</v>
+        <v>4292101485.79925</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1080418696014957</v>
+        <v>0.2837808831011805</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.02764536916443087</v>
+        <v>0.6797642343494836</v>
       </c>
       <c r="I66" t="n">
-        <v>5.936008410552021</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>6.953028385127076</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7998146816060004</v>
+      </c>
+      <c r="N66" t="n">
+        <v>9.043265246992934</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>5705832460.504685</v>
+        <v>13114058335.80268</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2107142153791273</v>
+        <v>0.07689954735421532</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4223835941055356</v>
+        <v>0.01746898988782885</v>
       </c>
       <c r="I67" t="n">
-        <v>5.797080554134846</v>
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.9141482423209379</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.214878606058833</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4.735061850694032</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.8785501807439122</v>
+      </c>
+      <c r="N67" t="n">
+        <v>12.83594176418421</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>8347285360.36344</v>
+        <v>4673189241.223615</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.139955433361288</v>
+        <v>0.2875439021699359</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1503415383682486</v>
+        <v>0.6918108968725034</v>
       </c>
       <c r="I68" t="n">
-        <v>5.632893087460003</v>
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.8992551079411379</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.4364310058332208</v>
+      </c>
+      <c r="L68" t="n">
+        <v>4.127145170244655</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.9342731209623454</v>
+      </c>
+      <c r="N68" t="n">
+        <v>14.55831724900225</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>8000626311.259734</v>
+        <v>4367757007.760983</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1781045763872998</v>
+        <v>0.2818639630850477</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2970112661031828</v>
+        <v>0.6736275424815864</v>
       </c>
       <c r="I69" t="n">
-        <v>6.870613990085743</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>6.473646091109895</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.8031544937744438</v>
+      </c>
+      <c r="N69" t="n">
+        <v>9.589443784378982</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>8383965092.579226</v>
+        <v>4884737255.430657</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1584012713954952</v>
+        <v>0.2161045957643699</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2212591482468027</v>
+        <v>0.4631101649808907</v>
       </c>
       <c r="I70" t="n">
-        <v>4.946254644247843</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>6.458399667317343</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.755390973178408</v>
+      </c>
+      <c r="N70" t="n">
+        <v>8.649419796250816</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>8558805466.577349</v>
+        <v>11418672912.3245</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1276212707796013</v>
+        <v>0.1314435120021719</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1029211214414281</v>
+        <v>0.1920821722225053</v>
       </c>
       <c r="I71" t="n">
-        <v>5.266628738723814</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>7.270611433345418</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.8657344295406615</v>
+      </c>
+      <c r="N71" t="n">
+        <v>10.04407715746781</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>10519176001.30852</v>
+        <v>12736399633.18967</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1162881132369906</v>
+        <v>0.109412041089591</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.05934920869837013</v>
+        <v>0.1215521828389095</v>
       </c>
       <c r="I72" t="n">
-        <v>3.774298892319438</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>6.711255059437742</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.8421149561282774</v>
+      </c>
+      <c r="N72" t="n">
+        <v>10.1310440631278</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>10249393099.89084</v>
+        <v>4325580795.329555</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1300827763171851</v>
+        <v>0.3457736107056229</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1123847245102905</v>
+        <v>0.8782233584429494</v>
       </c>
       <c r="I73" t="n">
-        <v>6.42857081057655</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.3511960648522946</v>
+      </c>
+      <c r="L73" t="n">
+        <v>6.743700513827014</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8646168073261531</v>
+      </c>
+      <c r="N73" t="n">
+        <v>10.54863563269605</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>9098579754.908735</v>
+        <v>7034088865.83538</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1304141637446033</v>
+        <v>0.1444854251040657</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1136587899256281</v>
+        <v>0.2338336284129805</v>
       </c>
       <c r="I74" t="n">
-        <v>5.721301723361841</v>
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.8937506239065073</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1369372423534393</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.657120486988638</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.8729314606902454</v>
+      </c>
+      <c r="N74" t="n">
+        <v>12.80150872681627</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>8008881145.771207</v>
+        <v>8598704590.510414</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1857704581851093</v>
+        <v>0.1206319427631864</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3264838232027293</v>
+        <v>0.1574707807874368</v>
       </c>
       <c r="I75" t="n">
-        <v>7.173729313177761</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>6.565198128886401</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7499771105327885</v>
+      </c>
+      <c r="N75" t="n">
+        <v>8.434344081769369</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>6976462379.504103</v>
+        <v>15114351224.81265</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1667047131819649</v>
+        <v>0.104502809714188</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2531828940896383</v>
+        <v>0.105836117481191</v>
       </c>
       <c r="I76" t="n">
-        <v>4.534079478502274</v>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.3689307977591891</v>
+      </c>
+      <c r="L76" t="n">
+        <v>6.761435246733908</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8821091510798081</v>
+      </c>
+      <c r="N76" t="n">
+        <v>10.88074777486226</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>4875990728.467049</v>
+        <v>7889548221.173944</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2793448297692359</v>
+        <v>0.1523914901455664</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.6862436110924177</v>
+        <v>0.2591435446530552</v>
       </c>
       <c r="I77" t="n">
-        <v>5.092762487905997</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>6.52994362947553</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7957634597062724</v>
+      </c>
+      <c r="N77" t="n">
+        <v>9.385325564649918</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>11151851319.04516</v>
+        <v>12295307764.1759</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1122744900536572</v>
+        <v>0.09757223186355998</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.04391827177984611</v>
+        <v>0.08364905679121035</v>
       </c>
       <c r="I78" t="n">
-        <v>3.83552223782344</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>6.455791701871615</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.795083559148278</v>
+      </c>
+      <c r="N78" t="n">
+        <v>9.445879481093945</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>10043522484.19598</v>
+        <v>4528871997.32127</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1108416645406772</v>
+        <v>0.308274305572289</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.03840957325581507</v>
+        <v>0.7581757409488331</v>
       </c>
       <c r="I79" t="n">
-        <v>5.367667179754487</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>6.757677774911075</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.8427096371826708</v>
+      </c>
+      <c r="N79" t="n">
+        <v>10.09651496874234</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>10588649383.17587</v>
+        <v>7288424091.724113</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1142882473682433</v>
+        <v>0.2019774318115685</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.05166044404445459</v>
+        <v>0.4178844636391603</v>
       </c>
       <c r="I80" t="n">
-        <v>5.834969969521348</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>6.914460335591665</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.8595453035909016</v>
+      </c>
+      <c r="N80" t="n">
+        <v>10.27644573622637</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>9112984856.04143</v>
+        <v>9177263119.193035</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1218724026808534</v>
+        <v>0.1104581961783325</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.08081879221603799</v>
+        <v>0.1249012695882829</v>
       </c>
       <c r="I81" t="n">
-        <v>5.355037374625653</v>
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.9190619448126363</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2816020469492296</v>
+      </c>
+      <c r="L81" t="n">
+        <v>4.801785291584428</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.8825509270896064</v>
+      </c>
+      <c r="N81" t="n">
+        <v>12.8492332502077</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>10649791128.12512</v>
+        <v>15019211579.98069</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1077291381771897</v>
+        <v>0.0865037044775203</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.02644302936807306</v>
+        <v>0.04821505775741782</v>
       </c>
       <c r="I82" t="n">
-        <v>4.029580100820034</v>
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.9118761310796439</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.3797238081318032</v>
+      </c>
+      <c r="L82" t="n">
+        <v>4.070437972543238</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.925749592218215</v>
+      </c>
+      <c r="N82" t="n">
+        <v>14.44455387182106</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>4005917792.579385</v>
+        <v>10290642123.3184</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2857456116848948</v>
+        <v>0.1445792694149418</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.7108523143657853</v>
+        <v>0.234134054938112</v>
       </c>
       <c r="I83" t="n">
-        <v>5.519224841300496</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4348619127317448</v>
+      </c>
+      <c r="L83" t="n">
+        <v>6.827366361706464</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8629340266876392</v>
+      </c>
+      <c r="N83" t="n">
+        <v>10.43131417204632</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>6081432388.982442</v>
+        <v>6044685692.078655</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2265583257155205</v>
+        <v>0.2621692889800264</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.4832984971652593</v>
+        <v>0.6105784087649939</v>
       </c>
       <c r="I84" t="n">
-        <v>6.643277497766729</v>
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3758198018465676</v>
+      </c>
+      <c r="L84" t="n">
+        <v>6.768324250821287</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8831758464034398</v>
+      </c>
+      <c r="N84" t="n">
+        <v>10.89519267724751</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>5607888723.185783</v>
+        <v>7582346082.703445</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2256045782023422</v>
+        <v>0.1658203392836579</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.4796316811639051</v>
+        <v>0.3021337104436949</v>
       </c>
       <c r="I85" t="n">
-        <v>6.100195877226864</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>6.482700440486569</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.8097385720901433</v>
+      </c>
+      <c r="N85" t="n">
+        <v>9.712071001316298</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>5692916516.440256</v>
+        <v>5116605825.570953</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2364985427261938</v>
+        <v>0.3015320629722027</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.5215150547845885</v>
+        <v>0.7365916033806887</v>
       </c>
       <c r="I86" t="n">
-        <v>6.491719836220721</v>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2591852001149781</v>
+      </c>
+      <c r="L86" t="n">
+        <v>6.651689649089698</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8745565888026017</v>
+      </c>
+      <c r="N86" t="n">
+        <v>10.83944212696234</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>4760898248.951042</v>
+        <v>10950693277.96897</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2283280996899076</v>
+        <v>0.1420839412176995</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4901026412792894</v>
+        <v>0.2261456881169215</v>
       </c>
       <c r="I87" t="n">
-        <v>5.241369128466146</v>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2771773889371906</v>
+      </c>
+      <c r="L87" t="n">
+        <v>6.66968183791191</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8772713678511687</v>
+      </c>
+      <c r="N87" t="n">
+        <v>10.87574551911147</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>5667283492.577682</v>
+        <v>5645013942.997137</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2075255475644232</v>
+        <v>0.2050961063499692</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.4101243137358321</v>
+        <v>0.4278683672539975</v>
       </c>
       <c r="I88" t="n">
-        <v>5.670782502846505</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>6.640522077481879</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7840156557270901</v>
+      </c>
+      <c r="N88" t="n">
+        <v>9.039791037059924</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>6315512249.345007</v>
+        <v>10709133543.05841</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2111102721934038</v>
+        <v>0.1413753422639285</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.423906290043368</v>
+        <v>0.2238772296519827</v>
       </c>
       <c r="I89" t="n">
-        <v>4.783104890260302</v>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.1749945301878775</v>
+      </c>
+      <c r="L89" t="n">
+        <v>6.567498979162597</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.868513853967392</v>
+      </c>
+      <c r="N89" t="n">
+        <v>10.80277810018524</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>10008097926.32817</v>
+        <v>7653682414.977021</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1193475372435953</v>
+        <v>0.1475050869357753</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0711115931317101</v>
+        <v>0.243500559766661</v>
       </c>
       <c r="I90" t="n">
-        <v>5.759191138748344</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>6.908165294343526</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7761896283267722</v>
+      </c>
+      <c r="N90" t="n">
+        <v>8.615627272191919</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>5689157139.805227</v>
+        <v>15268341338.21059</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2214610282399643</v>
+        <v>0.07788685317270823</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.4637012225314876</v>
+        <v>0.02062968075467891</v>
       </c>
       <c r="I91" t="n">
-        <v>6.074936266969195</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>6.430292175831087</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7923502972407619</v>
+      </c>
+      <c r="N91" t="n">
+        <v>9.416713768984149</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>9870467451.95702</v>
+        <v>13153121214.66213</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1456916926173419</v>
+        <v>0.07547629142909115</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1723953911305181</v>
+        <v>0.01291267924985754</v>
       </c>
       <c r="I92" t="n">
-        <v>6.933763015729913</v>
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.913478686013106</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.07521669715402726</v>
+      </c>
+      <c r="L92" t="n">
+        <v>6.467721146128746</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.9271255002718158</v>
+      </c>
+      <c r="N92" t="n">
+        <v>12.07478885930757</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>9364590750.834061</v>
+        <v>13070783599.96569</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1345415537660078</v>
+        <v>0.07935855046997509</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.129527119399832</v>
+        <v>0.02534106816789174</v>
       </c>
       <c r="I93" t="n">
-        <v>4.068307474652467</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>6.813874341081885</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7499771105327885</v>
+      </c>
+      <c r="N93" t="n">
+        <v>8.185667869573885</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>7484063173.993542</v>
+        <v>7071565549.206789</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.158898052081171</v>
+        <v>0.1896507457461712</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2231690912267109</v>
+        <v>0.378422684587861</v>
       </c>
       <c r="I94" t="n">
-        <v>5.733931528490675</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>6.873677861017399</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.8300098198039358</v>
+      </c>
+      <c r="N94" t="n">
+        <v>9.726518535061317</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>6983360419.547894</v>
+        <v>6525728120.924538</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2186775818881285</v>
+        <v>0.2023027217096141</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4529998728757381</v>
+        <v>0.4189258236621377</v>
       </c>
       <c r="I95" t="n">
-        <v>7.363176390110272</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>6.860260382860525</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.8250503619649178</v>
+      </c>
+      <c r="N95" t="n">
+        <v>9.640746856437833</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>6762845674.451956</v>
+        <v>6740479010.387259</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2304558058877042</v>
+        <v>0.2246142177235289</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.4982829059976339</v>
+        <v>0.4903522655568974</v>
       </c>
       <c r="I96" t="n">
-        <v>7.514734051656282</v>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2259963492218017</v>
+      </c>
+      <c r="L96" t="n">
+        <v>6.618500798196521</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.868513853967392</v>
+      </c>
+      <c r="N96" t="n">
+        <v>10.75177628115132</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>10477443825.83162</v>
+        <v>8017580925.454554</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1497516604318768</v>
+        <v>0.1894893502323916</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1880045064798304</v>
+        <v>0.3779060044297998</v>
       </c>
       <c r="I97" t="n">
-        <v>7.565253272171618</v>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.1253997615578458</v>
+      </c>
+      <c r="L97" t="n">
+        <v>6.517904210532565</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.8696198347297232</v>
+      </c>
+      <c r="N97" t="n">
+        <v>10.8744924840619</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>7223332348.751714</v>
+        <v>5691223223.80776</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1479526440708058</v>
+        <v>0.1946860852979655</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.1810879359112841</v>
+        <v>0.3945424637229008</v>
       </c>
       <c r="I98" t="n">
-        <v>2.41147295029267</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>6.519550018615186</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7703801606561892</v>
+      </c>
+      <c r="N98" t="n">
+        <v>8.888053194508597</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>10349259643.25007</v>
+        <v>9525448008.983759</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1349019077814498</v>
+        <v>0.1146702631697564</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1309125509230782</v>
+        <v>0.1383854823023092</v>
       </c>
       <c r="I99" t="n">
-        <v>2.670071594218413</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>6.586656161578893</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7659550188930472</v>
+      </c>
+      <c r="N99" t="n">
+        <v>8.732444216282051</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>8448068381.884256</v>
+        <v>12260386925.36631</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1379757475092807</v>
+        <v>0.107250593966121</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1427303586173268</v>
+        <v>0.1146326792217227</v>
       </c>
       <c r="I100" t="n">
-        <v>5.620263282331169</v>
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.9585597536650696</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.1243037120994811</v>
+      </c>
+      <c r="L100" t="n">
+        <v>4.64448695673468</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.9978651485063819</v>
+      </c>
+      <c r="N100" t="n">
+        <v>15.31281601339296</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>7211595314.188211</v>
+        <v>6330504775.652084</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2357292715323922</v>
+        <v>0.2499187057065338</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.518557483851153</v>
+        <v>0.5713602597975141</v>
       </c>
       <c r="I101" t="n">
-        <v>8.196743528613322</v>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.1970149540076206</v>
+      </c>
+      <c r="L101" t="n">
+        <v>6.58951940298234</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8826428747370276</v>
+      </c>
+      <c r="N101" t="n">
+        <v>11.06333809175821</v>
       </c>
     </row>
   </sheetData>
